--- a/data/income_statement/2digits/size/05_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/05_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>05-Mining of coal and lignite</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>05-Mining of coal and lignite</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>330601.2940599999</v>
+        <v>355739.0780399999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>353929.7518499999</v>
+        <v>338871.56379</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>349529.77047</v>
+        <v>360762.87679</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>548687.0541599999</v>
+        <v>563154.57307</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>577557.2482499999</v>
+        <v>559949.83218</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>683791.3562799999</v>
+        <v>679871.2344</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>510408.01089</v>
+        <v>580772.5625700001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>603708.07039</v>
+        <v>683331.3000299999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>535701.1692</v>
+        <v>592695.62334</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1865655.28107</v>
+        <v>816771.2889100001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1090059.36626</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1276806.36954</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>716584.302</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>323349.6824</v>
+        <v>345562.51158</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>342010.91059</v>
+        <v>327626.8291</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>344935.20722</v>
+        <v>356425.6688400001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>540253.1259099999</v>
+        <v>552010.3252000001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>567695.13436</v>
+        <v>548645.68761</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>671622.2093700001</v>
+        <v>665805.66073</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>490747.85651</v>
+        <v>542430.6559499999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>572569.0336900001</v>
+        <v>651293.7216899999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>515387.5016799999</v>
+        <v>573566.2313700001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1834076.92768</v>
+        <v>782334.4552000001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1050906.02892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1235946.52548</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>689930.188</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2380.68767</v>
+        <v>3733.71864</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>6771.64243</v>
@@ -1037,7 +953,7 @@
         <v>1913.07489</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2126.91645</v>
+        <v>2121.36976</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>1888.47731</v>
@@ -1046,7 +962,7 @@
         <v>1799.36849</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2179.96992</v>
+        <v>7827.89724</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1370.99764</v>
@@ -1055,175 +971,200 @@
         <v>2077.79136</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>22.5438</v>
+        <v>2145.74214</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>289.85317</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>4870.92399</v>
+        <v>6442.84782</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>5147.19883</v>
+        <v>4473.092259999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2681.48836</v>
+        <v>2424.13306</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>6307.0118</v>
+        <v>9022.87811</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7973.63658</v>
+        <v>9415.66726</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>10369.77842</v>
+        <v>12266.20518</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>17480.18446</v>
+        <v>30514.00938</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>29768.03906</v>
+        <v>30666.5807</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>18235.87616</v>
+        <v>17051.60061</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>31555.80959</v>
+        <v>32291.09157</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>39153.33734000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>40569.99089</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>26654.114</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1391.40606</v>
+        <v>1341.61976</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1337.74226</v>
+        <v>806.17297</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2155.0763</v>
+        <v>1969.4553</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1306.5647</v>
+        <v>4391.079299999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2987.63374</v>
+        <v>3428.57213</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3949.31879</v>
+        <v>4122.099679999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1320.61024</v>
+        <v>1257.97244</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4522.30562</v>
+        <v>7071.22501</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>11079.02829</v>
+        <v>10955.8862</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1164027.5138</v>
+        <v>5989.84578</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>10041.90801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>9916.088159999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>10076.292</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>556.66763</v>
+        <v>547.5242000000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>490.88456</v>
+        <v>260.97595</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2024.20182</v>
+        <v>1819.05971</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1046.00255</v>
+        <v>4130.33525</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2199.39424</v>
+        <v>2600.15839</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1190.01226</v>
+        <v>1364.58979</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>751.73774</v>
+        <v>713.49592</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4110.75572</v>
+        <v>4088.01255</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>9522.999240000001</v>
+        <v>9411.214800000002</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1160892.9441</v>
+        <v>3247.37175</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>5683.307140000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5556.29669</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>4122.146</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>132.92511</v>
+        <v>89.13331000000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>380.84924</v>
+        <v>79.18856</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>63.2313</v>
+        <v>82.75241</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>144.15496</v>
+        <v>144.33686</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>420.75163</v>
+        <v>460.92587</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2440.76649</v>
+        <v>2438.96985</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>162.87713</v>
+        <v>138.48115</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>292.42711</v>
+        <v>2887.24529</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1320.85315</v>
+        <v>1308.34957</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1911.07692</v>
+        <v>1452.9727</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>679.84533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>692.71565</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>829.355</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>701.8133200000001</v>
+        <v>704.96225</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>466.00846</v>
@@ -1244,217 +1185,247 @@
         <v>405.99537</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>119.12279</v>
+        <v>95.96717</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>235.1759</v>
+        <v>236.32183</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1223.49278</v>
+        <v>1289.50133</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3678.75554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3667.07582</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>5124.791</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>329209.888</v>
+        <v>354397.45828</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>352592.00959</v>
+        <v>338065.39082</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>347374.69417</v>
+        <v>358793.42149</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>547380.4894600001</v>
+        <v>558763.4937699999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>574569.61451</v>
+        <v>556521.2600499999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>679842.03749</v>
+        <v>675749.13472</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>509087.40065</v>
+        <v>579514.59013</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>599185.76477</v>
+        <v>676260.07502</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>524622.14091</v>
+        <v>581739.73714</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>701627.76727</v>
+        <v>810781.44313</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1080017.45825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1266890.28138</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>706508.01</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>260607.79212</v>
+        <v>279127.99092</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>285718.53979</v>
+        <v>277050.76097</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>289768.19395</v>
+        <v>303228.2334</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>451312.99123</v>
+        <v>466141.89603</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>498912.23818</v>
+        <v>476348.88042</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>616072.25604</v>
+        <v>600425.3468899999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>487814.19474</v>
+        <v>539533.0879500001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>520093.62351</v>
+        <v>588859.32202</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>438316.30274</v>
+        <v>490681.752</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>601190.35577</v>
+        <v>712659.31901</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>993004.7043900001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1155437.36849</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>649400.222</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>185346.09463</v>
+        <v>197599.27163</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>206253.97656</v>
+        <v>198896.09149</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>180155.74833</v>
+        <v>185998.53217</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>307378.53591</v>
+        <v>300895.58164</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>360938.5910599999</v>
+        <v>346160.96933</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>375451.77675</v>
+        <v>365992.95105</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>357521.72196</v>
+        <v>412533.97874</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>297447.73586</v>
+        <v>367332.62879</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>284594.34258</v>
+        <v>337216.81874</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>489097.97295</v>
+        <v>464780.71411</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>777854.26353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>885627.5178500001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>516026.897</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>43666.81381</v>
+        <v>43846.32775</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>30061.34793</v>
+        <v>29143.72134</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>31348.2864</v>
+        <v>30209.13186</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>56793.7758</v>
+        <v>56854.52626</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>61959.96017</v>
+        <v>56915.16325</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>133703.61193</v>
+        <v>132892.18237</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>99057.28829</v>
+        <v>101222.79479</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>124427.62276</v>
+        <v>130136.38538</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>87070.76224</v>
+        <v>84084.9518</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>94077.02639999999</v>
+        <v>88099.83751000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>152880.89026</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>152197.32764</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>93493.22199999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>29276.88616</v>
+        <v>35364.39401999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>49057.07754</v>
+        <v>48664.81038</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>78152.09451</v>
+        <v>86836.25292</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>75885.49407</v>
+        <v>96032.15774</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>73949.77638000001</v>
+        <v>71765.52952</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>96246.92647999999</v>
+        <v>90909.22316999998</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>29714.5258</v>
+        <v>19865.95095</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>93723.39293999999</v>
+        <v>86954.75792</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>62375.71611</v>
+        <v>65954.29574</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>8575.31999</v>
+        <v>150533.74228</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>36545.46023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>91888.43263</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>24417.02</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2317.99752</v>
@@ -1463,115 +1434,130 @@
         <v>346.13776</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>112.06471</v>
+        <v>184.31645</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>11255.18545</v>
+        <v>12359.63039</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2063.91057</v>
+        <v>1507.21832</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>10669.94088</v>
+        <v>10630.9903</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1520.65869</v>
+        <v>5910.36347</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4494.87195</v>
+        <v>4435.54993</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4275.481809999999</v>
+        <v>3425.68572</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>9440.03643</v>
+        <v>9245.025109999999</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>25724.09037</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>15463.083</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>68602.09587999999</v>
+        <v>75269.46736</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>66873.46980000001</v>
+        <v>61014.62985</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>57606.50022000001</v>
+        <v>55565.18809</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>96067.49823</v>
+        <v>92621.59774</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>75657.37633000001</v>
+        <v>80172.37963</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>63769.78145</v>
+        <v>75323.78783</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>21273.20591</v>
+        <v>39981.50218000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>79092.14126</v>
+        <v>87400.753</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>86305.83817</v>
+        <v>91057.98514</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>100437.4115</v>
+        <v>98122.12411999999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>87012.75386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>111452.91289</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>57107.788</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>50886.91136999999</v>
+        <v>54475.47364</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>55033.46759</v>
+        <v>49864.68392</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>56074.16948</v>
+        <v>56840.96696</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>71114.04728999999</v>
+        <v>72056.09825</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>71866.65248999999</v>
+        <v>70714.3382</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>81580.05718999999</v>
+        <v>83114.52647</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>85713.86953</v>
+        <v>84080.77137999999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>79989.16456</v>
+        <v>81992.16245999999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>73246.50738</v>
+        <v>71408.49239</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>90873.03656000001</v>
+        <v>86635.12293</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>74619.44650999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>79890.66558</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>74187.25599999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>316.9343</v>
@@ -1580,22 +1566,22 @@
         <v>103.6609</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>490.5269699999999</v>
+        <v>1292.95881</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>564.28347</v>
+        <v>698.02211</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>729.25206</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1449.83815</v>
+        <v>258.5888</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>10.172</v>
+        <v>257.95671</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2462.97613</v>
+        <v>2683.25607</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>173.5325</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>292.29654</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1235.181</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>19432.71369</v>
+        <v>20424.1746</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>24904.21412</v>
+        <v>21971.02383</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>19327.58062</v>
+        <v>18406.95569</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>22400.03017</v>
+        <v>23045.33076</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>25630.16407</v>
+        <v>24802.58579</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>24028.92013</v>
+        <v>25718.8887</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>14006.13638</v>
+        <v>17905.53996</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>18583.86333</v>
+        <v>20896.30285</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>19646.26586</v>
+        <v>22745.2602</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>24081.18378</v>
+        <v>21520.97514</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>22645.9272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22465.5313</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>23667.013</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>31137.26338</v>
+        <v>33734.36474</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>30025.59257</v>
+        <v>27789.99919</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>36256.06189</v>
+        <v>37141.05246</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>48149.73365</v>
+        <v>48312.74537999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>45507.23636</v>
+        <v>45182.50035</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>56101.29891</v>
+        <v>57137.04897</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>71697.56115000001</v>
+        <v>65917.27471</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>58942.3251</v>
+        <v>58412.60354</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>53426.70901999999</v>
+        <v>48489.69968999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>66714.44034999999</v>
+        <v>65036.73536</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>51681.22277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>57132.83774</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>49285.062</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>17715.18451</v>
+        <v>20793.99372</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>11840.00221</v>
+        <v>11149.94593</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1532.33074</v>
+        <v>-1275.77887</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>24953.45094</v>
+        <v>20565.49949</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3790.72384</v>
+        <v>9458.041429999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-17810.27574</v>
+        <v>-7790.73864</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-64440.66362</v>
+        <v>-44099.2692</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-897.0232999999998</v>
+        <v>5408.590539999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>13059.33079</v>
+        <v>19649.49275</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>9564.374940000002</v>
+        <v>11487.00119</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>12393.30735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>31562.24731</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-17079.468</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>9776.06676</v>
+        <v>11165.45757</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>7100.11749</v>
+        <v>6779.06458</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4772.01797</v>
+        <v>6108.21989</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>11680.39984</v>
+        <v>9902.155780000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>10294.64502</v>
+        <v>5672.45577</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>13977.31767</v>
+        <v>10970.4875</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>13270.60035</v>
+        <v>8331.99129</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>15119.26715</v>
+        <v>11003.52566</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>31776.85619</v>
+        <v>8448.634699999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>22760.2419</v>
+        <v>71417.12985</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>33486.71784</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>64861.33761</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>46379.923</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>84.03166999999999</v>
@@ -1793,7 +1804,7 @@
         <v>132.48465</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>20498.46639</v>
+        <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>730.0540699999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,56 +1856,66 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>348.79572</v>
+        <v>308.50165</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>344.15504</v>
+        <v>258.37855</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>970.4901799999999</v>
+        <v>2335.83984</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2731.16245</v>
+        <v>1086.5051</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2551.21774</v>
+        <v>753.44268</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>5315.67892</v>
+        <v>6196.95141</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3514.88739</v>
+        <v>1179.15332</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3584.66162</v>
+        <v>3613.66299</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3863.79851</v>
+        <v>2278.71655</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>8735.608099999999</v>
+        <v>24611.99031</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>18678.5596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>35779.39589</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>7943.866</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>7.5221</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>0</v>
@@ -1898,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>0.78015</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>0</v>
@@ -1907,10 +1933,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>67.48911</v>
+        <v>124.16407</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>32.3536</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>74.17764</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>39.97769</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2.012</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1379.83162</v>
+        <v>1423.02654</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>429.32987</v>
@@ -1943,13 +1974,13 @@
         <v>18.5</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2e-05</v>
+        <v>13.66751</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>0</v>
@@ -1957,38 +1988,43 @@
       <c r="M30" s="48" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>16.851</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>59.72417</v>
+        <v>67.38657000000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>4.885680000000001</v>
+        <v>4.870340000000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>43.35637000000001</v>
+        <v>42.87349</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>13.85894</v>
+        <v>12.8305</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4.829350000000001</v>
+        <v>4.44511</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4.65559</v>
+        <v>4.65146</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>38.861</v>
+        <v>36.9773</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>41.25517</v>
+        <v>34.39419</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>41.68208</v>
+        <v>39.18529</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>1072.42692</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>34.36959</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>56.072</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>350.9908</v>
+        <v>1817.37658</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>512.1221</v>
+        <v>360.92675</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>804.5226499999999</v>
+        <v>804.47676</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>858.63877</v>
+        <v>529.32086</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3710.25976</v>
+        <v>486.43346</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5703.83809</v>
+        <v>1210.81192</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6172.02115</v>
+        <v>5657.69364</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5376.79532</v>
+        <v>1265.30625</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>865.12976</v>
+        <v>634.67445</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>8593.87306</v>
+        <v>41587.62865</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5516.93861</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>17710.80551</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>19505.59</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,95 +2164,110 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7552.692779999999</v>
+        <v>7464.918559999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5705.27618</v>
+        <v>5628.73255</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2847.28959</v>
+        <v>2818.67062</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1120.97516</v>
+        <v>1317.7348</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3891.57207</v>
+        <v>4292.14857</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2713.35618</v>
+        <v>3318.28382</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3544.76946</v>
+        <v>1458.1057</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5916.58126</v>
+        <v>5819.846</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>6475.42583</v>
+        <v>5496.058410000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4284.15618</v>
+        <v>4070.90633</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>8386.81828</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10466.73486</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>18855.532</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>11225.10846</v>
+        <v>11391.13532</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>8370.90814</v>
+        <v>8823.20012</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3408.64664</v>
+        <v>1647.17042</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4442.72336</v>
+        <v>3577.19594</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6742.781529999999</v>
+        <v>4672.231059999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>13209.32168</v>
+        <v>8303.004150000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>18468.39922</v>
+        <v>10915.92573</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>8193.67893</v>
+        <v>4545.58904</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>8166.59779</v>
+        <v>5323.74083</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>22857.23518</v>
+        <v>17411.5443</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>15262.2567</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>10482.51615</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>14289.669</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>0.28801</v>
+        <v>17.56951</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>0.17163</v>
+        <v>0.0495</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>2.00225</v>
@@ -2210,13 +2276,13 @@
         <v>0.73017</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>33.33208</v>
+        <v>44.56239</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>15.4662</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14.17125</v>
+        <v>2403.1166</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>3.30881</v>
@@ -2228,52 +2294,62 @@
         <v>6.32367</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>15.59249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>12.79588</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>13.026</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3965.64991</v>
+        <v>3207.73089</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>589.4413</v>
+        <v>2131.0669</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>667.53559</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>539.0818200000001</v>
+        <v>365.92945</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>861.56353</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1898.91705</v>
+        <v>1818.22343</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>10617.92939</v>
+        <v>1182.0479</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>669.17</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2020.95107</v>
+        <v>870.95107</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>520.3578200000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3781.12496</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1960.75128</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2465.793</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>6.586</v>
@@ -2288,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0</v>
+        <v>65.44991</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0.11434</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>332.58701</v>
+        <v>1648.08177</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>969.45551</v>
+        <v>584.1398399999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1306.78602</v>
+        <v>370.33851</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2629.93177</v>
+        <v>2036.21681</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4439.14119</v>
+        <v>1462.66636</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6092.39833</v>
+        <v>1268.12736</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6381.06555</v>
+        <v>6262.7618</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>5798.158609999999</v>
+        <v>1389.66554</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3994.44553</v>
+        <v>2180.0047</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>21126.228</v>
+        <v>15732.91285</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>9508.28542</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6680.76807</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>11155.817</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,17 +2472,22 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>142.60024</v>
+        <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>0</v>
@@ -2425,155 +2516,175 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>6919.99753</v>
+        <v>6511.167149999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>6430.56972</v>
+        <v>5869.27414</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1382.89772</v>
+        <v>557.86901</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1272.9796</v>
+        <v>1174.31951</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1408.74473</v>
+        <v>2237.98887</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5202.540099999999</v>
+        <v>5201.187159999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1455.23303</v>
+        <v>1067.99943</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1723.04151</v>
+        <v>2483.44469</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2132.225</v>
+        <v>2253.80887</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1204.32569</v>
+        <v>1151.94996</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1957.13949</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1828.08658</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>654.831</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>6631.70316</v>
+        <v>7349.076770000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>5653.29571</v>
+        <v>3300.11224</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>5647.744850000001</v>
+        <v>6868.07328</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>7142.3351</v>
+        <v>8120.82507</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>10890.84199</v>
+        <v>12507.45289</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>17667.50921</v>
+        <v>23548.19151</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>19442.53128</v>
+        <v>41732.07491</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>21612.58056</v>
+        <v>22097.97957</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>25495.43555</v>
+        <v>18255.02265</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>24890.3983</v>
+        <v>21946.0779</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>33210.41251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>34508.05683</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>42411.956</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4041.8256</v>
+        <v>4685.79316</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3954.67415</v>
+        <v>3269.19015</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>4961.80935</v>
+        <v>6182.50743</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>5711.25758</v>
+        <v>7683.463430000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>9405.65063</v>
+        <v>12507.45289</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>17620.62258</v>
+        <v>23501.30488</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>19442.53128</v>
+        <v>41732.0428</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>21612.58056</v>
+        <v>22097.97957</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>20688.39733</v>
+        <v>18255.02265</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>24890.3983</v>
+        <v>21946.0779</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>33210.41251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>34508.05683</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>42189.056</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2589.87756</v>
+        <v>2663.28361</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1698.62156</v>
+        <v>30.92209</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>685.9355</v>
+        <v>685.5658500000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1431.07752</v>
+        <v>437.36164</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1485.19136</v>
+        <v>0</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>46.88663</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>0</v>
+        <v>0.03211</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4807.038219999999</v>
+        <v>0</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>0</v>
@@ -2581,206 +2692,236 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>222.9</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>9634.43965</v>
+        <v>13219.2392</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>4915.915849999999</v>
+        <v>5805.69815</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-2752.04278</v>
+        <v>-3682.80268</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>25048.79232</v>
+        <v>18769.63426</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-3548.25466</v>
+        <v>-2049.18675</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-34709.78896</v>
+        <v>-28671.4468</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-89080.99377000002</v>
+        <v>-88415.27855</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-15584.01564</v>
+        <v>-10231.45241</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>11174.15364</v>
+        <v>4519.363969999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-15423.01664</v>
+        <v>43546.50884</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-2592.644020000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>51433.01194</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-27401.17</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>971.25751</v>
+        <v>1701.13351</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2656.7018</v>
+        <v>2095.21821</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3990.61229</v>
+        <v>4551.04014</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>18133.94006</v>
+        <v>4719.36956</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>7186.04999</v>
+        <v>6954.15254</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>37102.70104</v>
+        <v>6573.42376</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>16794.79897</v>
+        <v>16369.88114</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>6774.05122</v>
+        <v>5234.22266</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>7084.20112</v>
+        <v>5924.31016</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>15052.0624</v>
+        <v>10011.0839</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>13074.59396</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>6172.689560000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>7931.956</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>9.75906</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>525.49437</v>
+        <v>73.08782000000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>58.31422</v>
+        <v>58.27649</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>322.89438</v>
+        <v>262.11886</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>73.65288000000001</v>
+        <v>62.25674</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>521.69566</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>19.71325</v>
+        <v>21.77989</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>468.85536</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>0.43504</v>
+        <v>0</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>99.70453000000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>38.152</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>961.4984499999999</v>
+        <v>1691.37445</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2131.20743</v>
+        <v>2022.13039</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3932.29807</v>
+        <v>4492.763650000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>18133.94006</v>
+        <v>4719.36956</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6863.155610000001</v>
+        <v>6692.03368</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>37029.04816</v>
+        <v>6511.16702</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>16273.10331</v>
+        <v>15848.18548</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>6754.33797</v>
+        <v>5212.44277</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6615.34576</v>
+        <v>5455.4548</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>15051.62736</v>
+        <v>10011.0839</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>13074.59396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>6072.98503</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>7893.804</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4500.09387</v>
+        <v>3079.32732</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3264.80267</v>
+        <v>4441.01279</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>12616.08533</v>
+        <v>5916.202200000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>8533.75361</v>
+        <v>8133.637789999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7006.467110000001</v>
+        <v>5530.917850000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>19176.11735</v>
+        <v>11375.96147</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>30656.13057</v>
+        <v>15947.7486</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>19385.22979</v>
+        <v>16193.46256</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>14356.12304</v>
+        <v>12011.94721</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>24943.95858</v>
+        <v>24334.35977</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>24867.16061</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>26263.57976</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>33169.428</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>917.76225</v>
@@ -2789,229 +2930,257 @@
         <v>7.07525</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>5.861</v>
+        <v>859.9564</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>911.4871400000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>275.11111</v>
+        <v>136.59954</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>5095.852989999999</v>
+        <v>4483.98458</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8482.949120000001</v>
+        <v>9094.523060000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5949.743640000001</v>
+        <v>5116.52819</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>4565.54241</v>
+        <v>4210.28886</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>9821.29866</v>
+        <v>9771.29866</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5356.488969999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>7434.37734</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>14853.094</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>826.21186</v>
+        <v>825.1936900000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>266.86691</v>
+        <v>241.86148</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>528.2558</v>
+        <v>518.64635</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>925.32157</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>162.41134</v>
+        <v>147.05391</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>83.10852</v>
+        <v>77.00117999999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1754.74614</v>
+        <v>148.54349</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>117.85233</v>
+        <v>119.15467</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>757.15412</v>
+        <v>184.81526</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>306.76173</v>
+        <v>305.3724100000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>598.42094</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2840.1665</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1426.454</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2756.11976</v>
+        <v>1336.37138</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2990.86051</v>
+        <v>4192.07606</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>12081.96853</v>
+        <v>4537.599450000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6696.9449</v>
+        <v>6296.82908</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6568.94466</v>
+        <v>5247.2644</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>13997.15584</v>
+        <v>6814.97571</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>20418.43531</v>
+        <v>6704.682049999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>13317.63382</v>
+        <v>10957.7797</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>9033.426509999999</v>
+        <v>7616.84309</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>14815.89819</v>
+        <v>14257.6887</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>18912.2507</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>15989.03592</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>16889.88</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6105.60329</v>
+        <v>11841.04539</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4307.81498</v>
+        <v>3459.90357</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-11377.51582</v>
+        <v>-5047.96474</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>34648.97876999999</v>
+        <v>15355.36603</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-3368.67178</v>
+        <v>-625.9520600000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-16783.20527</v>
+        <v>-33473.98451</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-102942.32537</v>
+        <v>-87993.14601000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-28195.19421</v>
+        <v>-21190.69231</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3902.231719999999</v>
+        <v>-1568.27308</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-25314.91282</v>
+        <v>29223.23297</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-14385.21067</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>31342.12174</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-52638.642</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2435.12533</v>
+        <v>3316.16457</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3422.28362</v>
+        <v>3221.29935</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3582.6516</v>
+        <v>3517.14326</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>7588.50043</v>
+        <v>6662.631240000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6737.120089999999</v>
+        <v>6059.66816</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>7125.97117</v>
+        <v>4003.88197</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2962.80122</v>
+        <v>2740.74816</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3225.380079999999</v>
+        <v>2726.12339</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4766.62872</v>
+        <v>4378.86251</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>5503.38519</v>
+        <v>8627.737730000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>10434.59187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>16533.53013</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2782.51</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>3670.47796</v>
+        <v>8524.88082</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>885.5313599999999</v>
+        <v>238.60422</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-14960.16742</v>
+        <v>-8565.108</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>27060.47834</v>
+        <v>8692.73479</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-10105.79187</v>
+        <v>-6685.62022</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-23909.17644</v>
+        <v>-37477.86648</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-105905.12659</v>
+        <v>-90733.89417</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-31420.57429</v>
+        <v>-23916.8157</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-864.397</v>
+        <v>-5947.135590000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-30818.29801</v>
+        <v>20595.49524</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-24819.80254</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>14808.59161</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-55421.152</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>47</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>